--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -631,27 +631,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 66041-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 66041-2018.xlsx", "A 66041-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 66041-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 66041-2018.png", "A 66041-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 66041-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 66041-2018.docx", "A 66041-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 66041-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 66041-2018.docx", "A 66041-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 66041-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 66041-2018.docx", "A 66041-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 66041-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 66041-2018.docx", "A 66041-2018")</f>
         <v/>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,27 +724,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 65163-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 65163-2020.xlsx", "A 65163-2020")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 65163-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 65163-2020.png", "A 65163-2020")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 65163-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 65163-2020.docx", "A 65163-2020")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 65163-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 65163-2020.docx", "A 65163-2020")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 65163-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 65163-2020.docx", "A 65163-2020")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 65163-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 65163-2020.docx", "A 65163-2020")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,27 +816,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 47899-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 47899-2019.xlsx", "A 47899-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 47899-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 47899-2019.png", "A 47899-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 47899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 47899-2019.docx", "A 47899-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 47899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 47899-2019.docx", "A 47899-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 47899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 47899-2019.docx", "A 47899-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 47899-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 47899-2019.docx", "A 47899-2019")</f>
         <v/>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,27 +907,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 8436-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 8436-2021.xlsx", "A 8436-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 8436-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 8436-2021.png", "A 8436-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 8436-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 8436-2021.docx", "A 8436-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 8436-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 8436-2021.docx", "A 8436-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 8436-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 8436-2021.docx", "A 8436-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 8436-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 8436-2021.docx", "A 8436-2021")</f>
         <v/>
       </c>
     </row>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -997,27 +997,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 6097-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 6097-2019.xlsx", "A 6097-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 6097-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 6097-2019.png", "A 6097-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 6097-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 6097-2019.docx", "A 6097-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 6097-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 6097-2019.docx", "A 6097-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 6097-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 6097-2019.docx", "A 6097-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 6097-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 6097-2019.docx", "A 6097-2019")</f>
         <v/>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1087,27 +1087,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 11163-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 11163-2021.xlsx", "A 11163-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 11163-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 11163-2021.png", "A 11163-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 11163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 11163-2021.docx", "A 11163-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 11163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 11163-2021.docx", "A 11163-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 11163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 11163-2021.docx", "A 11163-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 11163-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 11163-2021.docx", "A 11163-2021")</f>
         <v/>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1177,27 +1177,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 38039-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 38039-2022.xlsx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 38039-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 38039-2022.png", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 38039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 38039-2022.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 38039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 38039-2022.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 38039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 38039-2022.docx", "A 38039-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 38039-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 38039-2022.docx", "A 38039-2022")</f>
         <v/>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1267,27 +1267,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 27636-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 27636-2023.xlsx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 27636-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 27636-2023.png", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 27636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 27636-2023.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 27636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 27636-2023.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 27636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 27636-2023.docx", "A 27636-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 27636-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 27636-2023.docx", "A 27636-2023")</f>
         <v/>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1356,27 +1356,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 55589-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 55589-2019.xlsx", "A 55589-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 55589-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 55589-2019.png", "A 55589-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 55589-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 55589-2019.docx", "A 55589-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 55589-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 55589-2019.docx", "A 55589-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 55589-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 55589-2019.docx", "A 55589-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 55589-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 55589-2019.docx", "A 55589-2019")</f>
         <v/>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,27 +1445,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 63779-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 63779-2021.xlsx", "A 63779-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 63779-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 63779-2021.png", "A 63779-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 63779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 63779-2021.docx", "A 63779-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 63779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 63779-2021.docx", "A 63779-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 63779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 63779-2021.docx", "A 63779-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 63779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 63779-2021.docx", "A 63779-2021")</f>
         <v/>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1534,27 +1534,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24778-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24778-2022.xlsx", "A 24778-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24778-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24778-2022.png", "A 24778-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24778-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24778-2022.docx", "A 24778-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24778-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24778-2022.docx", "A 24778-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24778-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24778-2022.docx", "A 24778-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24778-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24778-2022.docx", "A 24778-2022")</f>
         <v/>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1622,27 +1622,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 61854-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 61854-2020.xlsx", "A 61854-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 61854-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 61854-2020.png", "A 61854-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 61854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 61854-2020.docx", "A 61854-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 61854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 61854-2020.docx", "A 61854-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 61854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 61854-2020.docx", "A 61854-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 61854-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 61854-2020.docx", "A 61854-2020")</f>
         <v/>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1709,27 +1709,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 9270-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 9270-2020.xlsx", "A 9270-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 9270-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 9270-2020.png", "A 9270-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 9270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 9270-2020.docx", "A 9270-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 9270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 9270-2020.docx", "A 9270-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 9270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 9270-2020.docx", "A 9270-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 9270-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 9270-2020.docx", "A 9270-2020")</f>
         <v/>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1796,27 +1796,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 57704-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 57704-2020.xlsx", "A 57704-2020")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 57704-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 57704-2020.png", "A 57704-2020")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 57704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 57704-2020.docx", "A 57704-2020")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 57704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 57704-2020.docx", "A 57704-2020")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 57704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 57704-2020.docx", "A 57704-2020")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 57704-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 57704-2020.docx", "A 57704-2020")</f>
         <v/>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1882,27 +1882,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 3975-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 3975-2021.xlsx", "A 3975-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 3975-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 3975-2021.png", "A 3975-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 3975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 3975-2021.docx", "A 3975-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 3975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 3975-2021.docx", "A 3975-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 3975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 3975-2021.docx", "A 3975-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 3975-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 3975-2021.docx", "A 3975-2021")</f>
         <v/>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1968,27 +1968,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 52906-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 52906-2021.xlsx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 52906-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 52906-2021.png", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 52906-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 52906-2021.docx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 52906-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 52906-2021.docx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 52906-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 52906-2021.docx", "A 52906-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 52906-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 52906-2021.docx", "A 52906-2021")</f>
         <v/>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2054,27 +2054,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 21219-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 21219-2023.xlsx", "A 21219-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 21219-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 21219-2023.png", "A 21219-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 21219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 21219-2023.docx", "A 21219-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 21219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 21219-2023.docx", "A 21219-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 21219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 21219-2023.docx", "A 21219-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 21219-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 21219-2023.docx", "A 21219-2023")</f>
         <v/>
       </c>
     </row>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2144,27 +2144,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 46845-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 46845-2018.xlsx", "A 46845-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 46845-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 46845-2018.png", "A 46845-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 46845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 46845-2018.docx", "A 46845-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 46845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 46845-2018.docx", "A 46845-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 46845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 46845-2018.docx", "A 46845-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 46845-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 46845-2018.docx", "A 46845-2018")</f>
         <v/>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2229,27 +2229,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 69586-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 69586-2018.xlsx", "A 69586-2018")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 69586-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 69586-2018.png", "A 69586-2018")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 69586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 69586-2018.docx", "A 69586-2018")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 69586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 69586-2018.docx", "A 69586-2018")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 69586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 69586-2018.docx", "A 69586-2018")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 69586-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 69586-2018.docx", "A 69586-2018")</f>
         <v/>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2314,27 +2314,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 6089-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 6089-2019.xlsx", "A 6089-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 6089-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 6089-2019.png", "A 6089-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 6089-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 6089-2019.docx", "A 6089-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 6089-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 6089-2019.docx", "A 6089-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 6089-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 6089-2019.docx", "A 6089-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 6089-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 6089-2019.docx", "A 6089-2019")</f>
         <v/>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2399,27 +2399,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 9969-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 9969-2019.xlsx", "A 9969-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 9969-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 9969-2019.png", "A 9969-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 9969-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 9969-2019.docx", "A 9969-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 9969-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 9969-2019.docx", "A 9969-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 9969-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 9969-2019.docx", "A 9969-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 9969-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 9969-2019.docx", "A 9969-2019")</f>
         <v/>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2484,27 +2484,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 39367-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 39367-2019.xlsx", "A 39367-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 39367-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 39367-2019.png", "A 39367-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 39367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 39367-2019.docx", "A 39367-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 39367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 39367-2019.docx", "A 39367-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 39367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 39367-2019.docx", "A 39367-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 39367-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 39367-2019.docx", "A 39367-2019")</f>
         <v/>
       </c>
     </row>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2569,27 +2569,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 48001-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 48001-2019.xlsx", "A 48001-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 48001-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 48001-2019.png", "A 48001-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 48001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 48001-2019.docx", "A 48001-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 48001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 48001-2019.docx", "A 48001-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 48001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 48001-2019.docx", "A 48001-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 48001-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 48001-2019.docx", "A 48001-2019")</f>
         <v/>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2654,27 +2654,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 22170-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 22170-2020.xlsx", "A 22170-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 22170-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 22170-2020.png", "A 22170-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 22170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 22170-2020.docx", "A 22170-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 22170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 22170-2020.docx", "A 22170-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 22170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 22170-2020.docx", "A 22170-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 22170-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 22170-2020.docx", "A 22170-2020")</f>
         <v/>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2739,27 +2739,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 42694-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 42694-2020.xlsx", "A 42694-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 42694-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 42694-2020.png", "A 42694-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 42694-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 42694-2020.docx", "A 42694-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 42694-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 42694-2020.docx", "A 42694-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 42694-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 42694-2020.docx", "A 42694-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 42694-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 42694-2020.docx", "A 42694-2020")</f>
         <v/>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2824,27 +2824,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 51244-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 51244-2021.xlsx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 51244-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 51244-2021.png", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 51244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 51244-2021.docx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 51244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 51244-2021.docx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 51244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 51244-2021.docx", "A 51244-2021")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 51244-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 51244-2021.docx", "A 51244-2021")</f>
         <v/>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2909,27 +2909,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 54192-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 54192-2021.xlsx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 54192-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 54192-2021.png", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 54192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 54192-2021.docx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 54192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 54192-2021.docx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 54192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 54192-2021.docx", "A 54192-2021")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 54192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 54192-2021.docx", "A 54192-2021")</f>
         <v/>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2994,27 +2994,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 19459-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 19459-2023.xlsx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 19459-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 19459-2023.png", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 19459-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 19459-2023.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 19459-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 19459-2023.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 19459-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 19459-2023.docx", "A 19459-2023")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 19459-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 19459-2023.docx", "A 19459-2023")</f>
         <v/>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3079,27 +3079,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24698-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24698-2023.xlsx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24698-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24698-2023.png", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24698-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24698-2023.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24698-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24698-2023.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24698-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24698-2023.docx", "A 24698-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24698-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24698-2023.docx", "A 24698-2023")</f>
         <v/>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3164,27 +3164,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24695-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24695-2023.xlsx", "A 24695-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24695-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24695-2023.png", "A 24695-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24695-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24695-2023.docx", "A 24695-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24695-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24695-2023.docx", "A 24695-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24695-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24695-2023.docx", "A 24695-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24695-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24695-2023.docx", "A 24695-2023")</f>
         <v/>
       </c>
     </row>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3249,27 +3249,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24700-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 24700-2023.xlsx", "A 24700-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24700-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 24700-2023.png", "A 24700-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 24700-2023.docx", "A 24700-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 24700-2023.docx", "A 24700-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 24700-2023.docx", "A 24700-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24700-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 24700-2023.docx", "A 24700-2023")</f>
         <v/>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>43434</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
         <v>44172</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4081,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4195,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -565,14 +565,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 66041-2018</t>
+          <t>A 65163-2020</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>43434</v>
+        <v>44172</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -585,39 +585,133 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.4</v>
+        <v>16.8</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Liten diskröksvamp
+Dvärgjordstjärna
+Fyrflikig jordstjärna
+Fågelarv
+Klibbveronika
+Mindre hackspett
+Rakhorndyvel
+Ekoxe
+Murgröna
+Rödbrun jordstjärna</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 65163-2020.xlsx", "A 65163-2020")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 65163-2020.png", "A 65163-2020")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 65163-2020.docx", "A 65163-2020")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 65163-2020.docx", "A 65163-2020")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 65163-2020.docx", "A 65163-2020")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 65163-2020.docx", "A 65163-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A 66041-2018</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>43434</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MÖRBYLÅNGA</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>6</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>9</v>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Lundalm
 Skogsalm
@@ -630,121 +724,28 @@
 Sankt pers nycklar</t>
         </is>
       </c>
-      <c r="S2">
+      <c r="S3">
         <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 66041-2018.xlsx", "A 66041-2018")</f>
         <v/>
       </c>
-      <c r="T2">
+      <c r="T3">
         <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 66041-2018.png", "A 66041-2018")</f>
         <v/>
       </c>
-      <c r="V2">
+      <c r="V3">
         <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 66041-2018.docx", "A 66041-2018")</f>
         <v/>
       </c>
-      <c r="W2">
+      <c r="W3">
         <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 66041-2018.docx", "A 66041-2018")</f>
         <v/>
       </c>
-      <c r="X2">
+      <c r="X3">
         <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 66041-2018.docx", "A 66041-2018")</f>
         <v/>
       </c>
-      <c r="Y2">
+      <c r="Y3">
         <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 66041-2018.docx", "A 66041-2018")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A 65163-2020</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44172</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>MÖRBYLÅNGA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>9</v>
-      </c>
-      <c r="R3" s="2" t="inlineStr">
-        <is>
-          <t>Liten diskröksvamp
-Dvärgjordstjärna
-Fyrflikig jordstjärna
-Fågelarv
-Mindre hackspett
-Rakhorndyvel
-Ekoxe
-Murgröna
-Rödbrun jordstjärna</t>
-        </is>
-      </c>
-      <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/artfynd/A 65163-2020.xlsx", "A 65163-2020")</f>
-        <v/>
-      </c>
-      <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/kartor/A 65163-2020.png", "A 65163-2020")</f>
-        <v/>
-      </c>
-      <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomål/A 65163-2020.docx", "A 65163-2020")</f>
-        <v/>
-      </c>
-      <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/klagomålsmail/A 65163-2020.docx", "A 65163-2020")</f>
-        <v/>
-      </c>
-      <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsyn/A 65163-2020.docx", "A 65163-2020")</f>
-        <v/>
-      </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORBYLANGA/tillsynsmail/A 65163-2020.docx", "A 65163-2020")</f>
         <v/>
       </c>
     </row>
@@ -758,7 +759,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +851,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +942,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1031,7 +1032,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1121,7 +1122,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1211,7 +1212,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,7 +1302,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,7 +1391,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1479,7 +1480,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1568,7 +1569,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1656,7 +1657,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1743,7 +1744,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1830,7 +1831,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1916,7 +1917,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2002,7 +2003,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2088,7 +2089,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2178,7 +2179,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2263,7 +2264,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2349,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2433,7 +2434,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2518,7 +2519,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2603,7 +2604,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2688,7 +2689,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2774,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2858,7 +2859,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2943,7 +2944,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3028,7 +3029,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3113,7 +3114,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3198,7 +3199,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3283,7 +3284,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3340,7 +3341,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3397,7 +3398,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3454,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3511,7 +3512,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3568,7 +3569,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3625,7 +3626,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3682,7 +3683,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3739,7 +3740,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3796,7 +3797,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3853,7 +3854,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3910,7 +3911,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3967,7 +3968,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4024,7 +4025,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4081,7 +4082,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4138,7 +4139,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4195,7 +4196,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4257,7 +4258,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4314,7 +4315,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4371,7 +4372,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44172</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44172</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44172</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>

--- a/Översikt MÖRBYLÅNGA.xlsx
+++ b/Översikt MÖRBYLÅNGA.xlsx
@@ -572,7 +572,7 @@
         <v>44172</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43434</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>43725</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44245</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         <v>43493</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>44262</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         <v>45097</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>43760</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1391,7 +1391,7 @@
         <v>44508</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>44728</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>44155</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44140</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         <v>44222</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44467</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>45062</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
         <v>43367</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>43446</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>43493</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43509</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2434,7 +2434,7 @@
         <v>43690</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43725</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>43956</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>44077</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2774,7 +2774,7 @@
         <v>44460</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44470</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>45049</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3199,7 +3199,7 @@
         <v>45084</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3284,7 +3284,7 @@
         <v>43493</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>43496</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>43509</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3455,7 +3455,7 @@
         <v>43509</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         <v>43602</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
         <v>43612</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3626,7 +3626,7 @@
         <v>43644</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3683,7 +3683,7 @@
         <v>43725</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>43725</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>43749</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         <v>43801</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44026</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         <v>44155</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         <v>44369</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>44467</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         <v>44544</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4196,7 +4196,7 @@
         <v>44614</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4258,7 +4258,7 @@
         <v>44740</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>45005</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         <v>45062</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
